--- a/Prime number performance.xlsx
+++ b/Prime number performance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\ahmadshk\os\lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C45609A-F298-49D0-AA88-51133DBA8506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D6529E-1AD0-432C-9FC8-3A78E9B29926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,37 +417,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.511E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7390000000000002E-3</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2629999999999998E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.568E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1409999999999997E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2E-3</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1E-3</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7222000000000001E-3</c:v>
+                  <c:v>6.5999999999999991E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -536,31 +536,31 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,37 +1142,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.511E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7390000000000002E-3</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2629999999999998E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.568E-3</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1409999999999997E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2E-3</c:v>
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1E-3</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7222000000000001E-3</c:v>
+                  <c:v>6.5999999999999991E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,31 +1258,31 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3065,7 +3065,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3102,7 +3102,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="C2">
-        <v>1.511E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -3119,10 +3119,10 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="C3">
-        <v>4.7390000000000002E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -3136,10 +3136,10 @@
         <v>0.12</v>
       </c>
       <c r="C4">
-        <v>2.2629999999999998E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -3153,10 +3153,10 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="C5">
-        <v>2.568E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -3170,10 +3170,10 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="C6">
-        <v>4.1409999999999997E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -3187,10 +3187,10 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="C7">
-        <v>2E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -3204,10 +3204,10 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="C8">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -3221,10 +3221,10 @@
         <v>0.09</v>
       </c>
       <c r="C9">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -3238,7 +3238,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="C10">
-        <v>1E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -3255,10 +3255,10 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="C11">
-        <v>3.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="C12">
         <f>(C2+C3+C4+C5+C6+C7+C8+C9+C10+C11)/10</f>
-        <v>2.7222000000000001E-3</v>
+        <v>6.5999999999999991E-3</v>
       </c>
     </row>
   </sheetData>
